--- a/data/trans_bre/P31_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +545,19 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Brecha de género relativa</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Brecha de género relativa</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -590,6 +632,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>13,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,28</t>
+          <t>11,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,42</t>
+          <t>8,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>11,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>12,3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17,32%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10,56%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16,37%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,19%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16,47%</t>
         </is>
       </c>
     </row>
@@ -642,32 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,02; 19,22</t>
+          <t>8,35; 19,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,39; 15,42</t>
+          <t>7,4; 15,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,2; 12,67</t>
+          <t>4,11; 12,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,6; 27,6</t>
+          <t>5,34; 17,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,09; 20,23</t>
+          <t>-0,51; 7,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,3; 17,06</t>
+          <t>8,32; 16,91</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10,42; 26,99</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9,15; 20,52</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 16,85</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7,04; 25,84</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,58; 9,03</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10,88; 23,89</t>
         </is>
       </c>
     </row>
@@ -684,32 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,39</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>14,65</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>8,11</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9,43%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12,24%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8,83%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20,35%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,46%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10,04%</t>
         </is>
       </c>
     </row>
@@ -722,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 12,65</t>
+          <t>3,42; 13,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 13,85</t>
+          <t>5,5; 14,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 12,85</t>
+          <t>2,51; 12,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 16,14</t>
+          <t>8,85; 21,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,88; 17,7</t>
+          <t>-1,28; 10,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 16,74</t>
+          <t>1,43; 14,72</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4,02; 16,96</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6,54; 18,35</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 15,89</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>11,9; 31,95</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 12,42</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 19,36</t>
         </is>
       </c>
     </row>
@@ -764,32 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5,05%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -802,32 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 13,01</t>
+          <t>-2,92; 14,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 8,19</t>
+          <t>-4,85; 7,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 11,82</t>
+          <t>-2,7; 11,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 16,59</t>
+          <t>-7,2; 15,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 9,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 14,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 17,99</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 9,12</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 13,56</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-8,95; 20,91</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,77</t>
+          <t>9,9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,52</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>11,84</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>11,22</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11,85%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16,43%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14,73%</t>
         </is>
       </c>
     </row>
@@ -882,44 +1140,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,6; 13,36</t>
+          <t>6,69; 13,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 11,97</t>
+          <t>7,04; 12,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 10,46</t>
+          <t>4,2; 10,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,16; 17,67</t>
+          <t>7,88; 15,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,28; 15,1</t>
+          <t>0,37; 6,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,67; 13,44</t>
+          <t>7,65; 14,7</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8,2; 17,55</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8,46; 15,98</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 13,14</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10,6; 22,61</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 8,44</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9,79; 20,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P31_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>13,05</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,66</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,24</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>11,54</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,53</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>12,3</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>17,32%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>14,82%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>10,56%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>16,37%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>4,19%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>16,47%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>13.27848256490359</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11.30516171108534</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.974366230944929</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>11.52674185309275</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>3.531268490839201</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>12.24266891934636</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1767277951377254</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.143118968851103</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1018168305876576</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.1631989639989317</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.04192770675494063</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.1638030636200487</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>8,35; 19,06</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,4; 15,62</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,11; 12,65</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>5,34; 17,12</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,51; 7,35</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>8,32; 16,91</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>10,42; 26,99</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>9,15; 20,52</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>4,91; 16,85</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>7,04; 25,84</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-0,58; 9,03</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>10,88; 23,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>8.473725681566043</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>7.022544484890163</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.823673282162081</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>5.157406756167874</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.5054837448783275</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>8.32642279106522</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.108473822541747</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.08502613063984113</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.04760691170651867</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.07020904641855975</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.005773193479342033</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.107522843673988</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.01104521186938</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>15.32518706835969</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.42385561410487</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>17.21512688863698</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>7.3527756632403</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>16.91923907188528</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.2712085069421244</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1997287633943463</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.1648991887521039</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.2597705012485601</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.09029407699188145</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.2373445053226236</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,66</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,89</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,12</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>14,65</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,73</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,11</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>9,43%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>12,24%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>8,83%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>20,35%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>5,46%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>10,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3,42; 13,27</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>5,5; 14,13</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 12,27</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>8,85; 21,13</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-1,28; 10,32</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,43; 14,72</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>4,02; 16,96</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>6,54; 18,35</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>2,92; 15,89</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>11,9; 31,95</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-1,4; 12,42</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>1,67; 19,36</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.196727486586019</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>9.847040224983184</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.49210157924578</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>15.01961198503019</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>4.727199031386863</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>8.026827421619242</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.08865330994171065</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1214040007607417</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.0931224351717094</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.2091897198611041</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.05457937995349531</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.09923641121146738</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,98</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,4</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,09</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>5,88%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,07%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,05%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5,21%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.815754317284215</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>5.584662869038234</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.8088458741458</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>9.380629707466111</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-1.284414919906846</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1.338196820677195</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.03413144137356204</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.06630507167438408</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.03397783034410389</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.1241149170023334</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.01396901553731017</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.01567932966713547</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 14,23</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 7,94</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 11,16</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,2; 15,27</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; 17,99</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-5,12; 9,12</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-2,98; 13,56</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-8,95; 20,91</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.25275572502986</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.19991966071357</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.65987488596382</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>21.59064258325948</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>10.3190437959422</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.66882227452532</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.172131170304049</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1836621918419858</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1658726857491152</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.3241518951619998</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.1242409083521982</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.190406013478277</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>9,9</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9,61</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,25</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,84</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,73</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>11,22</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>12,56%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>11,85%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>9,04%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>16,43%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>4,4%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>14,73%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>4.973842055980294</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.8827012320859806</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.677611918711921</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.749095997188735</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.05930968775077994</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.009611332608795967</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.05383876305659899</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.06071206058926495</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>6,69; 13,39</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,04; 12,65</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,2; 10,22</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,88; 15,62</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 6,99</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7,65; 14,7</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>8,2; 17,55</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>8,46; 15,98</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>5,15; 13,14</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>10,6; 22,61</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 8,44</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>9,79; 20,1</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.731208927908702</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.960255417243651</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.460440321519482</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.517506819964436</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.04034945629808424</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.05205914483815312</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.02743280141051421</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.07903118200457629</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.91902232847159</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.626582803037713</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.6341979549948</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>15.96868849666017</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.2192620010402394</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.08703727360577847</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.1395316995077144</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.2304157708735657</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>9.834297209570487</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>9.408724664256074</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.302162564346815</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>12.058515754531</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>3.733624299057614</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>11.15501499677579</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1250981153171924</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1155624616540091</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.09101883262924805</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.167438089286594</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.04403000746040962</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.1462907065234311</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>6.340775156909896</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>6.83756142645235</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.32224423161647</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>8.16222133681716</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.3657194662993256</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>7.5511096455231</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.07771192864620911</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.08201816578305826</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.05284922864243034</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.1096720628400843</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.00373876778544923</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.09597952390436498</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>13.50585302188439</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.41350397623281</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.26476887141015</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>15.82956684029124</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>6.987365881333369</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>14.62383804834818</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1777544637533337</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.1571188749004208</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1319763724915957</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.2297162243685989</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.08437151140571604</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.1986995781389284</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
